--- a/US004- Quality Assurance Checklist Create Claim v1.xlsx
+++ b/US004- Quality Assurance Checklist Create Claim v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hnguyen442\eclipse-workspace\DemoClient\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{081B4C7C-EABA-45A3-B83B-37C88A7963DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3A75D32-4AAD-418C-B2DB-4199F1195A98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="9072" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="4" r:id="rId1"/>
@@ -147,7 +147,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="130">
   <si>
     <t>Quality Assurance Checklist</t>
   </si>
@@ -155,9 +155,6 @@
     <t>Exercise</t>
   </si>
   <si>
-    <t>US001</t>
-  </si>
-  <si>
     <t>Fresher</t>
   </si>
   <si>
@@ -179,19 +176,7 @@
     <t>Component</t>
   </si>
   <si>
-    <t>Create_Client</t>
-  </si>
-  <si>
     <t>&lt;&lt;Fill&gt;</t>
-  </si>
-  <si>
-    <t>Modify_Client</t>
-  </si>
-  <si>
-    <t>List_Client</t>
-  </si>
-  <si>
-    <t>Detail_Client</t>
   </si>
   <si>
     <t>No.</t>
@@ -225,58 +210,27 @@
     <t>Scenario 1</t>
   </si>
   <si>
-    <t>Save Client info successfully</t>
-  </si>
-  <si>
     <t>Scenario 2</t>
   </si>
   <si>
-    <t>Save Client info unsuccessfully –
-Not fulfill mandatory fields</t>
-  </si>
-  <si>
     <t>Scenario 3</t>
   </si>
   <si>
-    <t xml:space="preserve">Check duplication if ID number exists </t>
-  </si>
-  <si>
     <t>Scenario 4</t>
   </si>
   <si>
-    <t>Check Date of Birth value </t>
-  </si>
-  <si>
     <t>Scenario 5</t>
   </si>
   <si>
-    <t xml:space="preserve">Change existing client info </t>
-  </si>
-  <si>
-    <t>Scenario 6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inquire on client info </t>
-  </si>
-  <si>
     <t>Rule 1</t>
   </si>
   <si>
-    <t xml:space="preserve">Client info is saved in database. </t>
-  </si>
-  <si>
     <t>Rule 2</t>
   </si>
   <si>
-    <t xml:space="preserve">Client info is updated and saved in database. </t>
-  </si>
-  <si>
     <t>Rule 3</t>
   </si>
   <si>
-    <t xml:space="preserve">Client info is displayed from database. System does not allow modification during inquiry mode. </t>
-  </si>
-  <si>
     <t>Source Change Log</t>
   </si>
   <si>
@@ -448,27 +402,6 @@
     <t>https://github.com/hai0626/DemoClient</t>
   </si>
   <si>
-    <t>Client</t>
-  </si>
-  <si>
-    <t>ClientRepository</t>
-  </si>
-  <si>
-    <t>ClientController</t>
-  </si>
-  <si>
-    <t>details_client</t>
-  </si>
-  <si>
-    <t>list_clients</t>
-  </si>
-  <si>
-    <t>modify_client</t>
-  </si>
-  <si>
-    <t>new_client</t>
-  </si>
-  <si>
     <t>application</t>
   </si>
   <si>
@@ -478,33 +411,9 @@
     <t>Hai Nguyen</t>
   </si>
   <si>
-    <t>https://github.com/hai0626/DemoClient/tree/main/src/main/java/com/fresherprogram/demo/controller</t>
-  </si>
-  <si>
-    <t>https://github.com/hai0626/DemoClient/tree/main/src/main/java/com/fresherprogram/demo/repository</t>
-  </si>
-  <si>
-    <t>https://github.com/hai0626/DemoClient/blob/main/src/main/java/com/fresherprogram/demo/controller/ClientController.java</t>
-  </si>
-  <si>
     <t>Generate</t>
   </si>
   <si>
-    <t>https://github.com/hai0626/DemoClient/blob/main/src/main/java/com/fresherprogram/demo/extension/Generate.java</t>
-  </si>
-  <si>
-    <t>https://github.com/hai0626/DemoClient/blob/main/src/main/resources/templates/add-client.html</t>
-  </si>
-  <si>
-    <t>https://github.com/hai0626/DemoClient/blob/main/src/main/resources/templates/detail-client.html</t>
-  </si>
-  <si>
-    <t>https://github.com/hai0626/DemoClient/blob/main/src/main/resources/templates/list-client.html</t>
-  </si>
-  <si>
-    <t>https://github.com/hai0626/DemoClient/blob/main/src/main/resources/templates/update-client.html</t>
-  </si>
-  <si>
     <t>https://github.com/hai0626/DemoClient/blob/main/src/main/resources/log4j.properties</t>
   </si>
   <si>
@@ -533,6 +442,102 @@
   </si>
   <si>
     <t>https://github.com/hai0626/DemoClient/blob/main/src/main/java/com/fresherprogram/demo/repository/MessageRepository.java</t>
+  </si>
+  <si>
+    <t>html</t>
+  </si>
+  <si>
+    <t>GlobalExceptionHandler</t>
+  </si>
+  <si>
+    <t>https://github.com/hai0626/DemoClient/blob/main/src/main/java/com/fresherprogram/demo/extension/GlobalExceptionHandler.java</t>
+  </si>
+  <si>
+    <t>Claim</t>
+  </si>
+  <si>
+    <t>ClaimRepository</t>
+  </si>
+  <si>
+    <t>ClaimController</t>
+  </si>
+  <si>
+    <t>https://github.com/hai0626/DemoClient/blob/main/src/main/java/com/fresherprogram/demo/controller/ClaimController.java</t>
+  </si>
+  <si>
+    <t>ClaimDAO</t>
+  </si>
+  <si>
+    <t>https://github.com/hai0626/DemoClient/blob/main/src/main/java/com/fresherprogram/demo/dao/ClaimDAO.java</t>
+  </si>
+  <si>
+    <t>https://github.com/hai0626/DemoClient/blob/main/src/main/resources/templates/detail-Claim.html</t>
+  </si>
+  <si>
+    <t>https://github.com/hai0626/DemoClient/blob/main/src/main/resources/templates/list-Claim.html</t>
+  </si>
+  <si>
+    <t>https://github.com/hai0626/DemoClient/blob/main/src/main/resources/templates/update-Claim.html</t>
+  </si>
+  <si>
+    <t>https://github.com/hai0626/DemoClient/blob/main/src/main/resources/templates/add-Claim.html</t>
+  </si>
+  <si>
+    <t>details_claim</t>
+  </si>
+  <si>
+    <t>list_claims</t>
+  </si>
+  <si>
+    <t>update_claim</t>
+  </si>
+  <si>
+    <t>add_claim</t>
+  </si>
+  <si>
+    <t>https://github.com/hai0626/DemoClient/blob/main/src/main/java/com/fresherprogram/demo/model/Claim.java</t>
+  </si>
+  <si>
+    <t>https://github.com/hai0626/DemoClient/blob/main/src/main/java/com/fresherprogram/demo/extension/GenerateClaim.java</t>
+  </si>
+  <si>
+    <t>US004</t>
+  </si>
+  <si>
+    <t>Create_Claim</t>
+  </si>
+  <si>
+    <t>Modify_Claim</t>
+  </si>
+  <si>
+    <t>List_Claim</t>
+  </si>
+  <si>
+    <t>Detail_Claim</t>
+  </si>
+  <si>
+    <t>Create Claim for Motor policy as pending</t>
+  </si>
+  <si>
+    <t>Check if Policy number exists</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Save new Claim unsuccessfully – Not fulfill mandatory fields </t>
+  </si>
+  <si>
+    <t>Claim details are modified</t>
+  </si>
+  <si>
+    <t>Create new Claim and approve successfully</t>
+  </si>
+  <si>
+    <t>Claim is saved with ‘Pending’ status.</t>
+  </si>
+  <si>
+    <t>Claim can only be modifed when it’s in ‘Pending’ status</t>
+  </si>
+  <si>
+    <t>Claim is created and saved with ‘Active’ status. User cannot change claim detail when claim is in ‘Active’ status.</t>
   </si>
 </sst>
 </file>
@@ -543,7 +548,7 @@
     <numFmt numFmtId="164" formatCode="mm\/dd\/yyyy"/>
     <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -666,12 +671,6 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <charset val="1"/>
     </font>
     <font>
       <b/>
@@ -903,7 +902,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1"/>
@@ -1003,47 +1002,47 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="20" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="21" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyAlignment="1">
@@ -1052,9 +1051,13 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="%" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -1462,7 +1465,7 @@
   <dimension ref="C4:G19"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1486,31 +1489,31 @@
         <v>1</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>2</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C8" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C9" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="3:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C10" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E10" s="37" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="3:7" x14ac:dyDescent="0.25">
@@ -1523,46 +1526,46 @@
     </row>
     <row r="13" spans="3:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="E13" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="F13" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="F13" s="28" t="s">
+      <c r="G13" s="28" t="s">
         <v>7</v>
-      </c>
-      <c r="G13" s="28" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="14" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C14" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="F14" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" s="21" t="s">
-        <v>11</v>
-      </c>
       <c r="G14" s="21" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="3:7" x14ac:dyDescent="0.25">
       <c r="E15" s="21" t="s">
-        <v>12</v>
+        <v>119</v>
       </c>
       <c r="F15" s="21"/>
       <c r="G15" s="21"/>
     </row>
     <row r="16" spans="3:7" x14ac:dyDescent="0.25">
       <c r="E16" s="21" t="s">
-        <v>13</v>
+        <v>120</v>
       </c>
       <c r="F16" s="21"/>
       <c r="G16" s="21"/>
     </row>
     <row r="17" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E17" s="21" t="s">
-        <v>14</v>
+        <v>121</v>
       </c>
       <c r="F17" s="21"/>
       <c r="G17" s="21"/>
@@ -1612,16 +1615,16 @@
   <sheetData>
     <row r="2" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1629,13 +1632,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="36" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C3" s="50" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
@@ -1643,13 +1646,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="36" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C4" s="51" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D4" s="35" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
@@ -1657,13 +1660,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="43" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="C5" s="51" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="D5" s="35" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
@@ -1671,13 +1674,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="44" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="C6" s="47" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="D6" s="35" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
@@ -1685,13 +1688,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="45" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="C7" s="48" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="D7" s="35" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
@@ -1699,13 +1702,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="45" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="C8" s="48" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="D8" s="35" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
@@ -1713,13 +1716,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="45" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="C9" s="48" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="D9" s="35" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
@@ -1727,13 +1730,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="45" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="C10" s="48" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="D10" s="35" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
@@ -1741,13 +1744,13 @@
         <v>9</v>
       </c>
       <c r="B11" s="45" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="C11" s="48" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="D11" s="35" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
@@ -1755,13 +1758,13 @@
         <v>10</v>
       </c>
       <c r="B12" s="46" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="C12" s="49" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="D12" s="35" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1779,72 +1782,72 @@
   <dimension ref="A2:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="A7" sqref="A7:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.6640625" style="19" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.33203125" style="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.88671875" style="19" customWidth="1"/>
+    <col min="3" max="3" width="35.77734375" style="19" customWidth="1"/>
     <col min="4" max="4" width="12.44140625" style="19" customWidth="1"/>
     <col min="5" max="16384" width="8.88671875" style="19"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="35">
         <v>1</v>
       </c>
       <c r="B3" s="36" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C3" s="50" t="s">
-        <v>25</v>
+        <v>122</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="35">
         <v>2</v>
       </c>
       <c r="B4" s="36" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C4" s="51" t="s">
-        <v>27</v>
+        <v>123</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="35">
         <v>3</v>
       </c>
       <c r="B5" s="36" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C5" s="52" t="s">
-        <v>29</v>
+        <v>124</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1852,13 +1855,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="36" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C6" s="53" t="s">
-        <v>31</v>
+        <v>125</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1866,28 +1869,19 @@
         <v>5</v>
       </c>
       <c r="B7" s="36" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C7" s="52" t="s">
-        <v>33</v>
+        <v>126</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="35">
-        <v>6</v>
-      </c>
-      <c r="B8" s="36" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" s="53" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8" s="21" t="s">
-        <v>21</v>
-      </c>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" s="63" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="64"/>
+      <c r="C8" s="65"/>
+      <c r="D8" s="66"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1902,8 +1896,8 @@
   </sheetPr>
   <dimension ref="A2:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E7:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1917,16 +1911,16 @@
   <sheetData>
     <row r="2" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1934,13 +1928,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="36" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="C3" s="50" t="s">
-        <v>37</v>
+        <v>127</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
@@ -1948,27 +1942,27 @@
         <v>2</v>
       </c>
       <c r="B4" s="36" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="C4" s="51" t="s">
-        <v>39</v>
+        <v>128</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A5" s="35">
         <v>3</v>
       </c>
       <c r="B5" s="36" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="C5" s="54" t="s">
-        <v>41</v>
+        <v>129</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1993,8 +1987,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2013,38 +2007,38 @@
   <sheetData>
     <row r="1" spans="1:9" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="B1" s="22"/>
       <c r="C1" s="23"/>
     </row>
     <row r="2" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="40" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B2" s="40" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="C2" s="40" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="D2" s="40" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="E2" s="40" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="F2" s="40" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="G2" s="40" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="H2" s="40" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="I2" s="40" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2052,25 +2046,25 @@
         <v>1</v>
       </c>
       <c r="B3" s="56" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" s="57" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D3" s="56" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="E3" s="56" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="F3" s="56" t="s">
-        <v>108</v>
+        <v>86</v>
       </c>
       <c r="G3" s="58">
-        <v>44792</v>
+        <v>44803</v>
       </c>
       <c r="H3" s="61" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="I3" s="38"/>
     </row>
@@ -2079,25 +2073,25 @@
         <v>2</v>
       </c>
       <c r="B4" s="56" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" s="59" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D4" s="56" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="E4" s="56" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="F4" s="56" t="s">
-        <v>108</v>
+        <v>86</v>
       </c>
       <c r="G4" s="58">
-        <v>44792</v>
+        <v>44803</v>
       </c>
       <c r="H4" s="60" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="I4" s="39"/>
     </row>
@@ -2106,25 +2100,25 @@
         <v>3</v>
       </c>
       <c r="B5" s="56" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" s="59" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D5" s="56" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="E5" s="56" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="F5" s="56" t="s">
-        <v>108</v>
+        <v>86</v>
       </c>
       <c r="G5" s="58">
-        <v>44792</v>
-      </c>
-      <c r="H5" s="61" t="s">
-        <v>111</v>
+        <v>44803</v>
+      </c>
+      <c r="H5" s="62" t="s">
+        <v>104</v>
       </c>
       <c r="I5" s="39"/>
     </row>
@@ -2133,50 +2127,52 @@
         <v>4</v>
       </c>
       <c r="B6" s="56" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" s="59" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="D6" s="56" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="E6" s="56" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="F6" s="56" t="s">
-        <v>108</v>
-      </c>
-      <c r="G6" s="58"/>
+        <v>86</v>
+      </c>
+      <c r="G6" s="58">
+        <v>44803</v>
+      </c>
       <c r="H6" s="61" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="I6" s="39"/>
     </row>
-    <row r="7" spans="1:9" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A7" s="20">
+    <row r="7" spans="1:9" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="A7" s="55">
         <v>5</v>
       </c>
       <c r="B7" s="56" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" s="59" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="D7" s="56" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="E7" s="56" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="F7" s="56" t="s">
-        <v>108</v>
+        <v>86</v>
       </c>
       <c r="G7" s="58">
-        <v>44792</v>
-      </c>
-      <c r="H7" s="41" t="s">
-        <v>115</v>
+        <v>44803</v>
+      </c>
+      <c r="H7" s="61" t="s">
+        <v>116</v>
       </c>
       <c r="I7" s="39"/>
     </row>
@@ -2185,25 +2181,25 @@
         <v>6</v>
       </c>
       <c r="B8" s="56" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8" s="59" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="D8" s="56" t="s">
-        <v>54</v>
+        <v>98</v>
       </c>
       <c r="E8" s="56" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="F8" s="56" t="s">
-        <v>108</v>
+        <v>86</v>
       </c>
       <c r="G8" s="58">
-        <v>44792</v>
+        <v>44803</v>
       </c>
       <c r="H8" s="41" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="I8" s="39"/>
     </row>
@@ -2212,79 +2208,79 @@
         <v>7</v>
       </c>
       <c r="B9" s="56" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C9" s="59" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="D9" s="56" t="s">
-        <v>54</v>
+        <v>98</v>
       </c>
       <c r="E9" s="56" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="F9" s="56" t="s">
+        <v>86</v>
+      </c>
+      <c r="G9" s="58">
+        <v>44803</v>
+      </c>
+      <c r="H9" s="41" t="s">
         <v>108</v>
       </c>
-      <c r="G9" s="58">
-        <v>44792</v>
-      </c>
-      <c r="H9" s="41" t="s">
-        <v>117</v>
-      </c>
       <c r="I9" s="39"/>
     </row>
-    <row r="10" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A10" s="55">
         <v>8</v>
       </c>
       <c r="B10" s="56" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C10" s="59" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="D10" s="56" t="s">
-        <v>54</v>
+        <v>98</v>
       </c>
       <c r="E10" s="56" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="F10" s="56" t="s">
-        <v>108</v>
+        <v>86</v>
       </c>
       <c r="G10" s="58">
-        <v>44792</v>
-      </c>
-      <c r="H10" s="42" t="s">
-        <v>114</v>
+        <v>44803</v>
+      </c>
+      <c r="H10" s="41" t="s">
+        <v>109</v>
       </c>
       <c r="I10" s="39"/>
     </row>
-    <row r="11" spans="1:9" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A11" s="55">
         <v>9</v>
       </c>
       <c r="B11" s="56" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C11" s="59" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="D11" s="56" t="s">
-        <v>55</v>
+        <v>98</v>
       </c>
       <c r="E11" s="56" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="F11" s="56" t="s">
-        <v>108</v>
+        <v>86</v>
       </c>
       <c r="G11" s="58">
-        <v>44792</v>
-      </c>
-      <c r="H11" s="41" t="s">
-        <v>123</v>
+        <v>44803</v>
+      </c>
+      <c r="H11" s="42" t="s">
+        <v>110</v>
       </c>
       <c r="I11" s="39"/>
     </row>
@@ -2293,25 +2289,25 @@
         <v>10</v>
       </c>
       <c r="B12" s="56" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C12" s="59" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="D12" s="56" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="E12" s="56" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="F12" s="56" t="s">
-        <v>108</v>
-      </c>
-      <c r="G12" s="62">
-        <v>44796</v>
+        <v>86</v>
+      </c>
+      <c r="G12" s="58">
+        <v>44803</v>
       </c>
       <c r="H12" s="41" t="s">
-        <v>118</v>
+        <v>93</v>
       </c>
       <c r="I12" s="39"/>
     </row>
@@ -2320,25 +2316,25 @@
         <v>11</v>
       </c>
       <c r="B13" s="56" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C13" s="59" t="s">
-        <v>119</v>
+        <v>85</v>
       </c>
       <c r="D13" s="56" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="E13" s="56" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="F13" s="56" t="s">
-        <v>108</v>
-      </c>
-      <c r="G13" s="62">
-        <v>44792</v>
+        <v>86</v>
+      </c>
+      <c r="G13" s="58">
+        <v>44803</v>
       </c>
       <c r="H13" s="41" t="s">
-        <v>121</v>
+        <v>88</v>
       </c>
       <c r="I13" s="39"/>
     </row>
@@ -2347,25 +2343,25 @@
         <v>12</v>
       </c>
       <c r="B14" s="56" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C14" s="59" t="s">
-        <v>120</v>
+        <v>89</v>
       </c>
       <c r="D14" s="56" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="E14" s="56" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="F14" s="56" t="s">
-        <v>108</v>
+        <v>86</v>
       </c>
       <c r="G14" s="58">
-        <v>44792</v>
+        <v>44803</v>
       </c>
       <c r="H14" s="41" t="s">
-        <v>122</v>
+        <v>91</v>
       </c>
       <c r="I14" s="39"/>
     </row>
@@ -2374,79 +2370,154 @@
         <v>13</v>
       </c>
       <c r="B15" s="56" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C15" s="59" t="s">
-        <v>124</v>
+        <v>90</v>
       </c>
       <c r="D15" s="56" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="E15" s="56" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="F15" s="56" t="s">
-        <v>108</v>
+        <v>86</v>
       </c>
       <c r="G15" s="58">
-        <v>44796</v>
+        <v>44803</v>
       </c>
       <c r="H15" s="41" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="57.6" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A16" s="55">
         <v>14</v>
       </c>
       <c r="B16" s="56" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C16" s="59" t="s">
-        <v>126</v>
+        <v>94</v>
       </c>
       <c r="D16" s="56" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="E16" s="56" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="F16" s="56" t="s">
-        <v>108</v>
+        <v>86</v>
       </c>
       <c r="G16" s="58">
-        <v>44797</v>
+        <v>44803</v>
       </c>
       <c r="H16" s="41" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="17" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="18" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="20" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="21" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="22" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="A17" s="55">
+        <v>15</v>
+      </c>
+      <c r="B17" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="59" t="s">
+        <v>96</v>
+      </c>
+      <c r="D17" s="56" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" s="56" t="s">
+        <v>37</v>
+      </c>
+      <c r="F17" s="56" t="s">
+        <v>86</v>
+      </c>
+      <c r="G17" s="58">
+        <v>44803</v>
+      </c>
+      <c r="H17" s="41" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="A18" s="55">
+        <v>16</v>
+      </c>
+      <c r="B18" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="59" t="s">
+        <v>99</v>
+      </c>
+      <c r="D18" s="56" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" s="56" t="s">
+        <v>37</v>
+      </c>
+      <c r="F18" s="56" t="s">
+        <v>86</v>
+      </c>
+      <c r="G18" s="58">
+        <v>44803</v>
+      </c>
+      <c r="H18" s="41" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" location="Cover!A1" display="Source Change Log" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="H5" r:id="rId1" xr:uid="{AF2B7194-5C4E-44CD-BC54-0F6C09755503}"/>
-    <hyperlink ref="H4" r:id="rId2" xr:uid="{76A33361-44CC-448F-B17F-13741D3876B4}"/>
-    <hyperlink ref="H6" r:id="rId3" xr:uid="{094C0A2A-C077-4D97-A934-857F79DD302B}"/>
-    <hyperlink ref="H7" r:id="rId4" xr:uid="{33B821FA-11B1-464B-B274-28DE3201CFB3}"/>
-    <hyperlink ref="H8" r:id="rId5" xr:uid="{CF27CF9E-F58F-4A53-97C5-EF2A2D4FD53B}"/>
-    <hyperlink ref="H9" r:id="rId6" xr:uid="{159E8C7D-BB89-46A8-8DDF-E4F226A3FBAB}"/>
-    <hyperlink ref="H10" r:id="rId7" xr:uid="{050276E4-F530-4B29-B8DA-D5688B2C24D2}"/>
-    <hyperlink ref="H12" r:id="rId8" xr:uid="{05A47D46-14D5-4AE7-B5F6-BAEC345C13B7}"/>
-    <hyperlink ref="H13" r:id="rId9" xr:uid="{F21B1127-AF63-4B01-A6CD-F69F3AC45225}"/>
-    <hyperlink ref="H14" r:id="rId10" xr:uid="{B902814E-1431-479F-BE79-FB5A4B35084D}"/>
-    <hyperlink ref="H11" r:id="rId11" xr:uid="{5F7FED3F-4F67-4711-B440-9DC5777FDADA}"/>
-    <hyperlink ref="H3" r:id="rId12" xr:uid="{33B060B3-874C-4129-BE66-C9AF443A394D}"/>
-    <hyperlink ref="H15" r:id="rId13" xr:uid="{11A4A058-7D7D-43EE-925E-92A9AC98F29E}"/>
-    <hyperlink ref="H16" r:id="rId14" xr:uid="{C7A24D2F-7547-4232-B327-36CA482801E4}"/>
+    <hyperlink ref="H7" r:id="rId1" xr:uid="{D882D0D5-BBE2-4083-9816-7C734577C484}"/>
+    <hyperlink ref="H8" r:id="rId2" display="https://github.com/hai0626/DemoClient/blob/main/src/main/resources/templates/detail-motor.html" xr:uid="{D5456C5E-CCC4-4A02-BF9A-7CAF2EF0C5C7}"/>
+    <hyperlink ref="H9" r:id="rId3" display="https://github.com/hai0626/DemoClient/blob/main/src/main/resources/templates/list-motor.html" xr:uid="{11AE39F8-9409-4505-A31A-2806F64FAE97}"/>
+    <hyperlink ref="H10" r:id="rId4" display="https://github.com/hai0626/DemoClient/blob/main/src/main/resources/templates/update-motor.html" xr:uid="{E94979EC-F98F-44A9-95A2-C3440ADC1B9B}"/>
+    <hyperlink ref="H11" r:id="rId5" display="https://github.com/hai0626/DemoClient/blob/main/src/main/resources/templates/add-motor.html" xr:uid="{931C979B-86F3-4280-82B6-ADB4D028B9B6}"/>
+    <hyperlink ref="H13" r:id="rId6" xr:uid="{72147A5F-3F0B-4B2F-99BD-552930F8528A}"/>
+    <hyperlink ref="H14" r:id="rId7" xr:uid="{45BDEA0F-1C30-4209-8E85-95B0A9B3768A}"/>
+    <hyperlink ref="H15" r:id="rId8" xr:uid="{83E903CD-40C3-4C3C-84DE-FE38CA895944}"/>
+    <hyperlink ref="H12" r:id="rId9" xr:uid="{6B1A98D0-5A91-4F20-8C5C-8077799068A8}"/>
+    <hyperlink ref="H3" r:id="rId10" xr:uid="{403C2449-444D-473C-AACE-86CBBB769E56}"/>
+    <hyperlink ref="H16" r:id="rId11" xr:uid="{E868DEF5-13EA-4D3A-91C5-4535FF3D423B}"/>
+    <hyperlink ref="H17" r:id="rId12" xr:uid="{4E71EC60-A42C-4D86-8284-AD98AC4A2242}"/>
+    <hyperlink ref="H5" r:id="rId13" xr:uid="{8C6F48F5-21BB-4F1F-A5FB-95C4730CD9F3}"/>
+    <hyperlink ref="H6" r:id="rId14" xr:uid="{22CF52AA-B762-4BDB-BE97-6B6D75F38415}"/>
+    <hyperlink ref="H18" r:id="rId15" xr:uid="{94D9D093-2F3B-4D9A-9076-5947B8C01555}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId15"/>
+  <pageSetup orientation="portrait" r:id="rId16"/>
 </worksheet>
 </file>
 
@@ -2474,38 +2545,38 @@
   <sheetData>
     <row r="1" spans="1:9" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="B1" s="22"/>
       <c r="C1" s="23"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="H2" s="18" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="I2" s="18" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2565,38 +2636,38 @@
   <sheetData>
     <row r="1" spans="1:9" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="B1" s="22"/>
       <c r="C1" s="23"/>
     </row>
     <row r="2" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="H2" s="18" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="I2" s="18" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2649,88 +2720,88 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="C1" s="24" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="19" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="C2" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="19" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="C3" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="19" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="C4" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="19" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="C5" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="19" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="C6" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="19" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="C7" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="19" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="C8" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -2766,17 +2837,17 @@
   <sheetData>
     <row r="1" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -2785,22 +2856,22 @@
     <row r="5" spans="1:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="6" spans="1:6" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="10" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.35">
@@ -2808,13 +2879,13 @@
         <v>44257</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="E7" s="14"/>
       <c r="F7" s="14"/>

--- a/US004- Quality Assurance Checklist Create Claim v1.xlsx
+++ b/US004- Quality Assurance Checklist Create Claim v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hnguyen442\eclipse-workspace\DemoClient\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3A75D32-4AAD-418C-B2DB-4199F1195A98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{652B57E6-2258-4D34-A858-3735A13B45AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="9072" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="4" r:id="rId1"/>
@@ -1464,8 +1464,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="C4:G19"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1896,7 +1896,7 @@
   </sheetPr>
   <dimension ref="A2:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E7:E8"/>
     </sheetView>
   </sheetViews>
@@ -1987,8 +1987,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3:G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2061,7 +2061,7 @@
         <v>86</v>
       </c>
       <c r="G3" s="58">
-        <v>44803</v>
+        <v>44813</v>
       </c>
       <c r="H3" s="61" t="s">
         <v>115</v>
@@ -2088,7 +2088,7 @@
         <v>86</v>
       </c>
       <c r="G4" s="58">
-        <v>44803</v>
+        <v>44813</v>
       </c>
       <c r="H4" s="60" t="s">
         <v>104</v>
@@ -2115,7 +2115,7 @@
         <v>86</v>
       </c>
       <c r="G5" s="58">
-        <v>44803</v>
+        <v>44813</v>
       </c>
       <c r="H5" s="62" t="s">
         <v>104</v>
@@ -2142,7 +2142,7 @@
         <v>86</v>
       </c>
       <c r="G6" s="58">
-        <v>44803</v>
+        <v>44813</v>
       </c>
       <c r="H6" s="61" t="s">
         <v>106</v>
@@ -2169,7 +2169,7 @@
         <v>86</v>
       </c>
       <c r="G7" s="58">
-        <v>44803</v>
+        <v>44813</v>
       </c>
       <c r="H7" s="61" t="s">
         <v>116</v>
@@ -2196,7 +2196,7 @@
         <v>86</v>
       </c>
       <c r="G8" s="58">
-        <v>44803</v>
+        <v>44813</v>
       </c>
       <c r="H8" s="41" t="s">
         <v>107</v>
@@ -2223,7 +2223,7 @@
         <v>86</v>
       </c>
       <c r="G9" s="58">
-        <v>44803</v>
+        <v>44813</v>
       </c>
       <c r="H9" s="41" t="s">
         <v>108</v>
@@ -2250,7 +2250,7 @@
         <v>86</v>
       </c>
       <c r="G10" s="58">
-        <v>44803</v>
+        <v>44813</v>
       </c>
       <c r="H10" s="41" t="s">
         <v>109</v>
@@ -2277,7 +2277,7 @@
         <v>86</v>
       </c>
       <c r="G11" s="58">
-        <v>44803</v>
+        <v>44813</v>
       </c>
       <c r="H11" s="42" t="s">
         <v>110</v>
@@ -2304,7 +2304,7 @@
         <v>86</v>
       </c>
       <c r="G12" s="58">
-        <v>44803</v>
+        <v>44813</v>
       </c>
       <c r="H12" s="41" t="s">
         <v>93</v>
@@ -2331,7 +2331,7 @@
         <v>86</v>
       </c>
       <c r="G13" s="58">
-        <v>44803</v>
+        <v>44813</v>
       </c>
       <c r="H13" s="41" t="s">
         <v>88</v>
@@ -2358,7 +2358,7 @@
         <v>86</v>
       </c>
       <c r="G14" s="58">
-        <v>44803</v>
+        <v>44813</v>
       </c>
       <c r="H14" s="41" t="s">
         <v>91</v>
@@ -2385,7 +2385,7 @@
         <v>86</v>
       </c>
       <c r="G15" s="58">
-        <v>44803</v>
+        <v>44813</v>
       </c>
       <c r="H15" s="41" t="s">
         <v>92</v>
@@ -2411,7 +2411,7 @@
         <v>86</v>
       </c>
       <c r="G16" s="58">
-        <v>44803</v>
+        <v>44813</v>
       </c>
       <c r="H16" s="41" t="s">
         <v>95</v>
@@ -2437,7 +2437,7 @@
         <v>86</v>
       </c>
       <c r="G17" s="58">
-        <v>44803</v>
+        <v>44813</v>
       </c>
       <c r="H17" s="41" t="s">
         <v>97</v>
@@ -2463,7 +2463,7 @@
         <v>86</v>
       </c>
       <c r="G18" s="58">
-        <v>44803</v>
+        <v>44813</v>
       </c>
       <c r="H18" s="41" t="s">
         <v>100</v>
@@ -2921,9 +2921,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3059,19 +3062,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F67BDBB-3D91-45AE-B771-A0EA7A408106}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1BB6136B-6A54-49EB-94C3-1CE33ACD540D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3095,9 +3094,10 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1BB6136B-6A54-49EB-94C3-1CE33ACD540D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F67BDBB-3D91-45AE-B771-A0EA7A408106}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>